--- a/Mapping_Spreadsheets/02_Substitution_Groups.xlsx
+++ b/Mapping_Spreadsheets/02_Substitution_Groups.xlsx
@@ -1006,7 +1006,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1036,7 +1035,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1062,7 +1060,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1088,7 +1085,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1114,7 +1110,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1140,7 +1135,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1166,7 +1160,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1192,7 +1185,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1218,7 +1210,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1244,7 +1235,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1295,7 +1285,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1321,7 +1310,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1347,7 +1335,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1373,7 +1360,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1399,7 +1385,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1425,7 +1410,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1451,7 +1435,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1477,7 +1460,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1503,7 +1485,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1529,7 +1510,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1577,7 +1557,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1607,7 +1586,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1633,7 +1611,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1659,7 +1636,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1685,7 +1661,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1711,7 +1686,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1737,7 +1711,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1763,7 +1736,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1789,7 +1761,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1815,7 +1786,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
